--- a/ApolloQA/Data/RatingManual/SC/VA00062.ClassCode_SeatingCapacityFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/SC/VA00062.ClassCode_SeatingCapacityFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00062.ClassCode_SeatingCapacityFactors" sheetId="1" r:id="Rc80a740821c64d32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VA00062.ClassCode_SeatingCapacityFactors" sheetId="1" r:id="R702edf5e394f4611"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -796,6 +796,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>817</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>819</x:v>
       </x:c>
       <x:c t="str">
@@ -1566,6 +1580,20 @@
     </x:row>
     <x:row>
       <x:c t="str">
+        <x:v>831</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
         <x:v>835</x:v>
       </x:c>
       <x:c t="str">
@@ -2329,6 +2357,20 @@
       </x:c>
       <x:c t="str">
         <x:v>60</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>1.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>849</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>+</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
